--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4570.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4570.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Roston Lamar Chase</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1119,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1322,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1369,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -1316,7 +1376,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1468,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1579,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1671,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1620,7 +1678,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1672,7 +1730,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1724,7 +1782,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1776,7 +1834,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1880,7 +1938,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1932,7 +1990,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1984,7 +2042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2036,7 +2094,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2088,7 +2146,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2140,7 +2198,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2179,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,7 +2259,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2238,7 +2296,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2275,7 +2333,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2312,7 +2370,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2349,7 +2407,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2386,7 +2444,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2423,7 +2481,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2460,7 +2518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2497,7 +2555,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2534,7 +2592,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2571,7 +2629,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2608,7 +2666,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2645,7 +2703,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2682,7 +2740,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2719,7 +2777,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2756,7 +2814,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2793,7 +2851,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2830,7 +2888,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2867,7 +2925,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2904,7 +2962,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2941,7 +2999,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2978,7 +3036,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3015,7 +3073,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3052,7 +3110,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3089,7 +3147,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3126,7 +3184,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3163,7 +3221,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3189,6 +3247,557 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>3/44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13.90%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.72%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>16.60%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.06%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.33%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.19%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.68%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4570.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4570.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3370,9 +3371,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3385,10 +3383,6 @@
           <t>4359</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3431,15 +3425,472 @@
           <t>4362</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.72%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>16.60%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.06%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.33%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.19%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.68%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3447,27 +3898,14 @@
           <t>4377</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.72%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3477,27 +3915,14 @@
           <t>4378</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3507,27 +3932,14 @@
           <t>4379</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>16.60%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3539,13 +3951,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3553,29 +3958,12 @@
           <t>4387</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3583,29 +3971,12 @@
           <t>4388</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.06%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3613,27 +3984,14 @@
           <t>4391</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>6</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.33%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3643,27 +4001,14 @@
           <t>4397</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>7</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.01%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3673,29 +4018,12 @@
           <t>4413</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14.19%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3705,13 +4033,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3719,23 +4040,14 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3747,13 +4059,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3761,27 +4066,14 @@
           <t>4520</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>5</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.68%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3793,13 +4085,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4570.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4570.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -662,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -674,7 +673,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -721,7 +721,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1120,6 +1120,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -1323,6 +1324,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1370,6 +1372,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -1469,6 +1472,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -1672,6 +1676,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -3254,839 +3259,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13.90%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.57%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.72%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>16.60%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.06%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.33%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.01%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14.19%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.68%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>